--- a/config_debug/extend_eliminate_sh_every_day_config.xlsx
+++ b/config_debug/extend_eliminate_sh_every_day_config.xlsx
@@ -139,19 +139,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>累计消60个酒碗（福卡）</t>
-  </si>
-  <si>
-    <t>累计消60个酒坛（福卡）</t>
-  </si>
-  <si>
-    <t>累计消60个铜钱（福卡）</t>
-  </si>
-  <si>
-    <t>累计消60个银锭（福卡）</t>
-  </si>
-  <si>
-    <t>累计消60个斧头（福卡）</t>
+    <t>累计消60个酒碗（福利券）</t>
+  </si>
+  <si>
+    <t>累计消60个酒坛（福利券）</t>
+  </si>
+  <si>
+    <t>累计消60个铜钱（福利券）</t>
+  </si>
+  <si>
+    <t>累计消60个银锭（福利券）</t>
+  </si>
+  <si>
+    <t>累计消60个斧头（福利券）</t>
   </si>
 </sst>
 </file>
@@ -554,13 +554,13 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.625" style="6" customWidth="1"/>
     <col min="4" max="4" width="14.75" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="6" customWidth="1"/>
